--- a/promoteheader.xlsx
+++ b/promoteheader.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Academic\PowerBI\Promoting_header\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Github\PowerBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E5DBDA-CFE2-4B3D-A16A-233C67271210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6794F2EB-9E10-4135-BDD1-5DE02A93FE8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31635" yWindow="5835" windowWidth="21600" windowHeight="11385" xr2:uid="{35EF2B0F-A1AB-4D28-BB6E-4BCC0930E56B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35EF2B0F-A1AB-4D28-BB6E-4BCC0930E56B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Country</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try </t>
+  </si>
+  <si>
+    <t xml:space="preserve">this </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for </t>
+  </si>
+  <si>
+    <t>header</t>
   </si>
 </sst>
 </file>
@@ -408,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53642BF-4221-4027-B083-A27A6925A229}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,6 +470,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
